--- a/RD files/CTA交易参数表-综合版.xlsx
+++ b/RD files/CTA交易参数表-综合版.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\working\CTP期货交易系统（看穿式）mongodb\RD files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -28,7 +33,7 @@
     <sheet name="CTA23" sheetId="19" r:id="rId19"/>
     <sheet name="CTA24" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -290,12 +295,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,8 +308,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -350,15 +362,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -400,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,9 +452,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,6 +487,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,14 +663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -680,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -691,10 +715,10 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>140</v>
@@ -712,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -723,10 +747,10 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -744,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -755,10 +779,10 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>80</v>
@@ -776,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -787,10 +811,10 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -808,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -819,10 +843,10 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -840,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -851,10 +875,10 @@
         <v>52</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>160</v>
@@ -872,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -883,10 +907,10 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>120</v>
@@ -904,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -915,10 +939,10 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -936,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -968,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -979,10 +1003,10 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>120</v>
@@ -1000,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1011,10 +1035,10 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>120</v>
@@ -1032,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1043,10 +1067,10 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>140</v>
@@ -1064,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1096,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1107,10 +1131,10 @@
         <v>60</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>140</v>
@@ -1128,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1139,10 +1163,10 @@
         <v>61</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>80</v>
@@ -1160,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1171,10 +1195,10 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -1192,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1203,10 +1227,10 @@
         <v>63</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -1224,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1235,10 +1259,10 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -1256,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1267,10 +1291,10 @@
         <v>65</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>180</v>
@@ -1288,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1320,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1352,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1363,10 +1387,10 @@
         <v>68</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>180</v>
@@ -1384,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1395,10 +1419,10 @@
         <v>69</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -1416,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1427,10 +1451,10 @@
         <v>70</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -1448,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1459,10 +1483,10 @@
         <v>71</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>80</v>
@@ -1480,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1491,10 +1515,10 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>80</v>
@@ -1512,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1523,10 +1547,10 @@
         <v>73</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>120</v>
@@ -1544,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1555,10 +1579,10 @@
         <v>74</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>80</v>
@@ -1576,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1587,10 +1611,10 @@
         <v>75</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -1608,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1619,10 +1643,10 @@
         <v>76</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>140</v>
@@ -1640,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1651,10 +1675,10 @@
         <v>77</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>140</v>
@@ -1672,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1683,10 +1707,10 @@
         <v>78</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>100</v>
@@ -1704,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1715,10 +1739,10 @@
         <v>79</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>80</v>
@@ -1736,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1747,10 +1771,10 @@
         <v>80</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>100</v>
@@ -1768,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1779,10 +1803,10 @@
         <v>81</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>100</v>
@@ -1800,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1811,10 +1835,10 @@
         <v>82</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -1832,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1865,19 +1889,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1909,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1941,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1973,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2005,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2037,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2069,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2101,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2133,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2165,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2197,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2229,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2261,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2293,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2325,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2357,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2389,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2421,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2453,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2485,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2517,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2549,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2581,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2613,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2645,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2677,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2709,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2741,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2773,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2805,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2837,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2869,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2901,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2933,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2965,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2997,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3029,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3061,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3094,19 +3119,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3138,7 +3164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3170,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3202,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3234,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3266,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3298,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3330,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3362,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3394,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3426,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3458,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3490,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3522,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3554,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3586,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3618,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3650,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3682,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3714,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3746,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3778,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3810,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3842,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3874,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3906,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3938,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3970,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4002,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4034,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4066,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4098,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4130,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4162,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4194,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4226,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4258,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4290,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4323,19 +4349,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4367,7 +4394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4399,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4431,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4463,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4495,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4527,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4559,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4591,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4623,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4655,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4687,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4719,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4751,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4783,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4815,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4847,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4879,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4911,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4943,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4975,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5007,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5039,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5071,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5103,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5135,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5167,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5199,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5231,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5263,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5295,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5327,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5359,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5391,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5423,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5455,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5487,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5519,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5552,19 +5579,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5596,7 +5624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5628,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5660,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5692,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5724,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5756,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5788,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5820,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5852,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5884,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5916,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5948,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5980,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6012,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6044,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6076,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6108,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6140,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6172,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6204,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6236,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6268,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6300,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6332,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6364,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6396,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6428,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6460,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6492,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6524,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6556,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6588,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6620,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6652,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6684,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6716,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6748,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6781,19 +6809,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6825,7 +6854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6857,7 +6886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6889,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6921,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6953,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6985,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7017,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7049,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7081,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7113,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7145,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7177,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7209,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7241,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7273,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7305,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7337,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7369,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7401,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7433,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7465,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7497,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7529,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7561,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7593,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7625,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7657,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7689,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7721,7 +7750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7753,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7785,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7817,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7849,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7881,7 +7910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7913,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7945,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7977,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8010,19 +8039,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -8054,7 +8084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8086,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8118,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8150,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8182,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8214,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8246,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8278,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8310,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8342,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8374,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8406,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8438,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8470,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8502,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8534,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8566,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8598,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8630,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8662,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8694,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8726,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8758,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8790,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8822,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8854,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8886,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8918,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8950,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8982,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9014,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9046,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9078,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9110,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9142,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9174,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9206,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9239,19 +9269,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -9283,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9315,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9347,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9379,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9411,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9443,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9475,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9507,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9539,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9571,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9603,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9635,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9667,7 +9698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9699,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9731,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9763,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9795,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9827,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9859,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9891,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9923,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9955,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9987,7 +10018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10019,7 +10050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10051,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10083,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10115,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10147,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10179,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10211,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10243,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10275,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10307,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10339,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10371,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10403,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10435,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10468,19 +10499,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -10512,7 +10544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10544,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10576,7 +10608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10608,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10640,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10672,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10704,7 +10736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10736,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10768,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10800,7 +10832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10832,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10864,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10896,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10928,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10960,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10992,7 +11024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11024,7 +11056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -11056,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -11088,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -11120,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11152,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -11184,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -11216,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -11248,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -11280,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -11312,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -11344,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -11376,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -11408,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -11440,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -11472,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11504,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11536,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11568,7 +11600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11600,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11632,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11664,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11697,19 +11729,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -11741,7 +11774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11773,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11805,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11837,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11869,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11901,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11933,7 +11966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11965,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11997,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -12029,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -12061,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -12093,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -12125,7 +12158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -12157,7 +12190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -12189,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -12221,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -12253,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -12285,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -12317,7 +12350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -12349,7 +12382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -12381,7 +12414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -12413,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -12445,7 +12478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -12477,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -12509,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -12541,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -12573,7 +12606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -12605,7 +12638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -12637,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -12669,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -12701,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -12733,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -12765,7 +12798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -12797,7 +12830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -12829,7 +12862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -12861,7 +12894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -12893,7 +12926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -12926,19 +12959,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -12970,7 +13004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13002,7 +13036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -13034,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -13066,7 +13100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -13098,7 +13132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -13130,7 +13164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -13162,7 +13196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -13194,7 +13228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -13226,7 +13260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -13258,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -13290,7 +13324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -13322,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -13354,7 +13388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -13386,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -13418,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -13450,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -13482,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -13514,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -13546,7 +13580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -13578,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -13610,7 +13644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -13642,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -13674,7 +13708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -13706,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -13738,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -13770,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -13802,7 +13836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -13834,7 +13868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -13866,7 +13900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -13898,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -13930,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -13962,7 +13996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -13994,7 +14028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -14026,7 +14060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -14058,7 +14092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -14090,7 +14124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -14122,7 +14156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -14155,19 +14189,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -14199,7 +14234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -14231,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -14263,7 +14298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -14295,7 +14330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -14327,7 +14362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -14359,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -14391,7 +14426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -14423,7 +14458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -14455,7 +14490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -14487,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -14519,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -14551,7 +14586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -14583,7 +14618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -14615,7 +14650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -14647,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -14679,7 +14714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -14711,7 +14746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -14743,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -14775,7 +14810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -14807,7 +14842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -14839,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -14871,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -14903,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -14935,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -14967,7 +15002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -14999,7 +15034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -15031,7 +15066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -15063,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -15095,7 +15130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -15127,7 +15162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -15159,7 +15194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -15191,7 +15226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -15223,7 +15258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -15255,7 +15290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -15287,7 +15322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -15319,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -15351,7 +15386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -15384,19 +15419,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -15428,7 +15464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -15460,7 +15496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -15492,7 +15528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -15524,7 +15560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -15556,7 +15592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -15588,7 +15624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -15620,7 +15656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -15652,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -15684,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -15716,7 +15752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -15748,7 +15784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -15780,7 +15816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -15812,7 +15848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -15844,7 +15880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -15876,7 +15912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -15908,7 +15944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -15940,7 +15976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -15972,7 +16008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -16004,7 +16040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -16036,7 +16072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -16068,7 +16104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -16100,7 +16136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -16132,7 +16168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -16164,7 +16200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -16196,7 +16232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -16228,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -16260,7 +16296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -16292,7 +16328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -16324,7 +16360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -16356,7 +16392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -16388,7 +16424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -16420,7 +16456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -16452,7 +16488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -16484,7 +16520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -16516,7 +16552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -16548,7 +16584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -16580,7 +16616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -16613,19 +16649,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -16657,7 +16694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -16689,7 +16726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -16721,7 +16758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -16753,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -16785,7 +16822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16817,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -16849,7 +16886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -16881,7 +16918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -16913,7 +16950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -16945,7 +16982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -16977,7 +17014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -17009,7 +17046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -17041,7 +17078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -17073,7 +17110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -17105,7 +17142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -17137,7 +17174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -17169,7 +17206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -17201,7 +17238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -17233,7 +17270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -17265,7 +17302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -17297,7 +17334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -17329,7 +17366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -17361,7 +17398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -17393,7 +17430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -17425,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -17457,7 +17494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -17489,7 +17526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -17521,7 +17558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -17553,7 +17590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -17585,7 +17622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -17617,7 +17654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -17649,7 +17686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -17681,7 +17718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -17713,7 +17750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -17745,7 +17782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -17777,7 +17814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -17809,7 +17846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -17842,19 +17879,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -17886,7 +17924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -17918,7 +17956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -17950,7 +17988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -17982,7 +18020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -18014,7 +18052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -18046,7 +18084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -18078,7 +18116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -18110,7 +18148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -18142,7 +18180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -18174,7 +18212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -18206,7 +18244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -18238,7 +18276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -18270,7 +18308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -18302,7 +18340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -18334,7 +18372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -18366,7 +18404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -18398,7 +18436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -18430,7 +18468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -18462,7 +18500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -18494,7 +18532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -18526,7 +18564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -18558,7 +18596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -18590,7 +18628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -18622,7 +18660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -18654,7 +18692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -18686,7 +18724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -18718,7 +18756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -18750,7 +18788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -18782,7 +18820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -18814,7 +18852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -18846,7 +18884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -18878,7 +18916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -18910,7 +18948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -18942,7 +18980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -18974,7 +19012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -19006,7 +19044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -19038,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -19071,19 +19109,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -19115,7 +19154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -19147,7 +19186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -19179,7 +19218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -19211,7 +19250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -19243,7 +19282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -19275,7 +19314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -19307,7 +19346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -19339,7 +19378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -19371,7 +19410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -19403,7 +19442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -19435,7 +19474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -19467,7 +19506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -19499,7 +19538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -19531,7 +19570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -19563,7 +19602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -19595,7 +19634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -19627,7 +19666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -19659,7 +19698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -19691,7 +19730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -19723,7 +19762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -19755,7 +19794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -19787,7 +19826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -19819,7 +19858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -19851,7 +19890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -19883,7 +19922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -19915,7 +19954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -19947,7 +19986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -19979,7 +20018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -20011,7 +20050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -20043,7 +20082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -20075,7 +20114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -20107,7 +20146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -20139,7 +20178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -20171,7 +20210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -20203,7 +20242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -20235,7 +20274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -20267,7 +20306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -20300,19 +20339,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -20344,7 +20384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -20376,7 +20416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -20408,7 +20448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -20440,7 +20480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -20472,7 +20512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -20504,7 +20544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -20536,7 +20576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20568,7 +20608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -20600,7 +20640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -20632,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -20664,7 +20704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -20696,7 +20736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -20728,7 +20768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -20760,7 +20800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -20792,7 +20832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -20824,7 +20864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -20856,7 +20896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -20888,7 +20928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -20920,7 +20960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -20952,7 +20992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -20984,7 +21024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -21016,7 +21056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -21048,7 +21088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -21080,7 +21120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -21112,7 +21152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -21144,7 +21184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -21176,7 +21216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -21208,7 +21248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -21240,7 +21280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -21272,7 +21312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -21304,7 +21344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -21336,7 +21376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -21368,7 +21408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -21400,7 +21440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -21432,7 +21472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -21464,7 +21504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -21496,7 +21536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -21529,19 +21569,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -21573,7 +21614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -21605,7 +21646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -21637,7 +21678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -21669,7 +21710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -21701,7 +21742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -21733,7 +21774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -21765,7 +21806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -21797,7 +21838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -21829,7 +21870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -21861,7 +21902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -21893,7 +21934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -21925,7 +21966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -21957,7 +21998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -21989,7 +22030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -22021,7 +22062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -22053,7 +22094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -22085,7 +22126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -22117,7 +22158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -22149,7 +22190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -22181,7 +22222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -22213,7 +22254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -22245,7 +22286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -22277,7 +22318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -22309,7 +22350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -22341,7 +22382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -22373,7 +22414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -22405,7 +22446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -22437,7 +22478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -22469,7 +22510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -22501,7 +22542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -22533,7 +22574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -22565,7 +22606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -22597,7 +22638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -22629,7 +22670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -22661,7 +22702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -22693,7 +22734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -22725,7 +22766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -22758,19 +22799,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -22802,7 +22844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -22834,7 +22876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -22866,7 +22908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -22898,7 +22940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -22930,7 +22972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -22962,7 +23004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -22994,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -23026,7 +23068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -23058,7 +23100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -23090,7 +23132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -23122,7 +23164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -23154,7 +23196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -23186,7 +23228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -23218,7 +23260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -23250,7 +23292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -23282,7 +23324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -23314,7 +23356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -23346,7 +23388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -23378,7 +23420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -23410,7 +23452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -23442,7 +23484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -23474,7 +23516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -23506,7 +23548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -23538,7 +23580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -23570,7 +23612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -23602,7 +23644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -23634,7 +23676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -23666,7 +23708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -23698,7 +23740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -23730,7 +23772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -23762,7 +23804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -23794,7 +23836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -23826,7 +23868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -23858,7 +23900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -23890,7 +23932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -23922,7 +23964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -23954,7 +23996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -23987,19 +24029,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -24031,7 +24074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -24063,7 +24106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -24095,7 +24138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -24127,7 +24170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -24159,7 +24202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -24191,7 +24234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -24223,7 +24266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -24255,7 +24298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -24287,7 +24330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -24319,7 +24362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -24351,7 +24394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -24383,7 +24426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -24415,7 +24458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -24447,7 +24490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -24479,7 +24522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -24511,7 +24554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -24543,7 +24586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -24575,7 +24618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -24607,7 +24650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -24639,7 +24682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -24671,7 +24714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -24703,7 +24746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -24735,7 +24778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -24767,7 +24810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -24799,7 +24842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -24831,7 +24874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -24863,7 +24906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -24895,7 +24938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -24927,7 +24970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -24959,7 +25002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -24991,7 +25034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -25023,7 +25066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -25055,7 +25098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -25087,7 +25130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -25119,7 +25162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -25151,7 +25194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -25183,7 +25226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -25216,6 +25259,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RD files/CTA交易参数表-综合版.xlsx
+++ b/RD files/CTA交易参数表-综合版.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CTA5" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>0.6</v>
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>0.7</v>
@@ -788,7 +788,7 @@
         <v>80</v>
       </c>
       <c r="G4">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>0.6</v>
@@ -817,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>0.7</v>
@@ -852,7 +852,7 @@
         <v>80</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>0.6</v>
@@ -881,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G7">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>0.6</v>
@@ -913,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>0.6</v>
@@ -948,7 +948,7 @@
         <v>80</v>
       </c>
       <c r="G9">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <v>0.6</v>
@@ -977,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="H10">
         <v>0.6</v>
@@ -1009,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H11">
         <v>0.6</v>
@@ -1041,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>0.6</v>
@@ -1073,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="H13">
         <v>0.6</v>
@@ -1105,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>0.6</v>
@@ -1137,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H15">
         <v>0.6</v>
@@ -1204,7 +1204,7 @@
         <v>80</v>
       </c>
       <c r="G17">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H17">
         <v>0.6</v>
@@ -1236,7 +1236,7 @@
         <v>80</v>
       </c>
       <c r="G18">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H18">
         <v>0.6</v>
@@ -1265,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G19">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="H19">
         <v>0.6</v>
@@ -1297,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G20">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="H20">
         <v>0.6</v>
@@ -1332,7 +1332,7 @@
         <v>80</v>
       </c>
       <c r="G21">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="H21">
         <v>0.6</v>
@@ -1361,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H22">
         <v>0.6</v>
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G23">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="H23">
         <v>0.6</v>
@@ -1425,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H24">
         <v>0.6</v>
@@ -1457,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G25">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H25">
         <v>0.6</v>
@@ -1492,7 +1492,7 @@
         <v>80</v>
       </c>
       <c r="G26">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H26">
         <v>0.6</v>
@@ -1553,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G28">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>0.6</v>
@@ -1588,7 +1588,7 @@
         <v>80</v>
       </c>
       <c r="G29">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H29">
         <v>0.6</v>
@@ -1617,10 +1617,10 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G30">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="H30">
         <v>0.6</v>
@@ -1649,10 +1649,10 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G31">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="H31">
         <v>0.6</v>
@@ -1681,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="H32">
         <v>0.6</v>
@@ -1713,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G33">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="H33">
         <v>0.6</v>
@@ -1748,7 +1748,7 @@
         <v>80</v>
       </c>
       <c r="G34">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <v>0.6</v>
@@ -1777,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G35">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H35">
         <v>0.6</v>
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G36">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="H36">
         <v>0.6</v>
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="H37">
         <v>0.6</v>
@@ -1876,7 +1876,7 @@
         <v>80</v>
       </c>
       <c r="G38">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="H38">
         <v>0.6</v>
@@ -3128,9 +3128,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -3175,10 +3182,10 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -3239,10 +3246,10 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>120</v>
@@ -3271,10 +3278,10 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3303,10 +3310,10 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -3335,10 +3342,10 @@
         <v>52</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -3367,10 +3374,10 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>140</v>
@@ -3399,10 +3406,10 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>120</v>
@@ -3463,10 +3470,10 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>160</v>
@@ -3495,10 +3502,10 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>80</v>
@@ -3527,10 +3534,10 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -3559,10 +3566,10 @@
         <v>59</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -3591,10 +3598,10 @@
         <v>60</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -3623,10 +3630,10 @@
         <v>61</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>80</v>
@@ -3655,10 +3662,10 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>160</v>
@@ -3687,10 +3694,10 @@
         <v>63</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -3719,10 +3726,10 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>80</v>
@@ -3783,10 +3790,10 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -3815,10 +3822,10 @@
         <v>67</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>80</v>
@@ -3847,10 +3854,10 @@
         <v>68</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>80</v>
@@ -3879,10 +3886,10 @@
         <v>69</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>120</v>
@@ -3911,10 +3918,10 @@
         <v>70</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -3943,10 +3950,10 @@
         <v>71</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>80</v>
@@ -3975,10 +3982,10 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>160</v>
@@ -4007,10 +4014,10 @@
         <v>73</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>200</v>
@@ -4039,10 +4046,10 @@
         <v>74</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>180</v>
@@ -4071,10 +4078,10 @@
         <v>75</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>120</v>
@@ -4103,10 +4110,10 @@
         <v>76</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>80</v>
@@ -4135,10 +4142,10 @@
         <v>77</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>80</v>
@@ -4167,10 +4174,10 @@
         <v>78</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>140</v>
@@ -4199,10 +4206,10 @@
         <v>79</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>80</v>
@@ -4231,10 +4238,10 @@
         <v>80</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>80</v>
@@ -4263,10 +4270,10 @@
         <v>81</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>80</v>
@@ -4295,10 +4302,10 @@
         <v>82</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>120</v>
@@ -4327,10 +4334,10 @@
         <v>83</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>100</v>
@@ -8048,7 +8055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="D2:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9278,7 +9287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9325,10 +9336,10 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -9389,10 +9400,10 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -9421,10 +9432,10 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -9453,10 +9464,10 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -9485,10 +9496,10 @@
         <v>52</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>80</v>
@@ -9517,10 +9528,10 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>80</v>
@@ -9549,10 +9560,10 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>160</v>
@@ -9581,10 +9592,10 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -9613,10 +9624,10 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>120</v>
@@ -9645,10 +9656,10 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>120</v>
@@ -9677,10 +9688,10 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -9709,10 +9720,10 @@
         <v>59</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -9741,10 +9752,10 @@
         <v>60</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -9773,10 +9784,10 @@
         <v>61</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>120</v>
@@ -9805,10 +9816,10 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>120</v>
@@ -9869,10 +9880,10 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -9901,10 +9912,10 @@
         <v>65</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -9965,10 +9976,10 @@
         <v>67</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>160</v>
@@ -9997,10 +10008,10 @@
         <v>68</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>180</v>
@@ -10029,10 +10040,10 @@
         <v>69</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>80</v>
@@ -10061,10 +10072,10 @@
         <v>70</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>80</v>
@@ -10093,10 +10104,10 @@
         <v>71</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>80</v>
@@ -10125,10 +10136,10 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>120</v>
@@ -10157,10 +10168,10 @@
         <v>73</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>140</v>
@@ -10189,10 +10200,10 @@
         <v>74</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>160</v>
@@ -10221,10 +10232,10 @@
         <v>75</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>80</v>
@@ -10253,10 +10264,10 @@
         <v>76</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -10285,10 +10296,10 @@
         <v>77</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>160</v>
@@ -10317,10 +10328,10 @@
         <v>78</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>120</v>
@@ -10349,10 +10360,10 @@
         <v>79</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -10413,10 +10424,10 @@
         <v>81</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>200</v>
@@ -10445,10 +10456,10 @@
         <v>82</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -10477,10 +10488,10 @@
         <v>83</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>100</v>
@@ -20348,7 +20359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -20395,10 +20408,10 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>140</v>
@@ -20427,10 +20440,10 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>160</v>
@@ -20459,10 +20472,10 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>220</v>
@@ -20491,10 +20504,10 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>80</v>
@@ -20523,10 +20536,10 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>120</v>
@@ -20555,10 +20568,10 @@
         <v>52</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>140</v>
@@ -20587,10 +20600,10 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>140</v>
@@ -20619,10 +20632,10 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -20651,10 +20664,10 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -20683,10 +20696,10 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>80</v>
@@ -20715,10 +20728,10 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -20747,10 +20760,10 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>140</v>
@@ -20811,10 +20824,10 @@
         <v>60</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>160</v>
@@ -20843,10 +20856,10 @@
         <v>61</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>120</v>
@@ -20875,10 +20888,10 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -20939,10 +20952,10 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>120</v>
@@ -20971,10 +20984,10 @@
         <v>65</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>180</v>
@@ -21003,10 +21016,10 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -21035,10 +21048,10 @@
         <v>67</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>80</v>
@@ -21067,10 +21080,10 @@
         <v>68</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>80</v>
@@ -21099,10 +21112,10 @@
         <v>69</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>220</v>
@@ -21163,10 +21176,10 @@
         <v>71</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>80</v>
@@ -21195,10 +21208,10 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -21227,10 +21240,10 @@
         <v>73</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>80</v>
@@ -21259,10 +21272,10 @@
         <v>74</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>220</v>
@@ -21291,10 +21304,10 @@
         <v>75</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -21323,10 +21336,10 @@
         <v>76</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>80</v>
@@ -21355,10 +21368,10 @@
         <v>77</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>180</v>
@@ -21387,10 +21400,10 @@
         <v>78</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>200</v>
@@ -21419,10 +21432,10 @@
         <v>79</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>220</v>
@@ -21451,10 +21464,10 @@
         <v>80</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>80</v>
@@ -21483,10 +21496,10 @@
         <v>81</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>100</v>
@@ -21515,10 +21528,10 @@
         <v>82</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>80</v>
@@ -21578,7 +21591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -21625,10 +21640,10 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -21689,10 +21704,10 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -21721,10 +21736,10 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>80</v>
@@ -21753,10 +21768,10 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>140</v>
@@ -21785,10 +21800,10 @@
         <v>52</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>120</v>
@@ -21817,10 +21832,10 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>120</v>
@@ -21849,10 +21864,10 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -21881,10 +21896,10 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -21913,10 +21928,10 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -21945,10 +21960,10 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>80</v>
@@ -21977,10 +21992,10 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -22009,10 +22024,10 @@
         <v>59</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -22041,10 +22056,10 @@
         <v>60</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>220</v>
@@ -22073,10 +22088,10 @@
         <v>61</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>120</v>
@@ -22105,10 +22120,10 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -22137,10 +22152,10 @@
         <v>63</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -22169,10 +22184,10 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>120</v>
@@ -22201,10 +22216,10 @@
         <v>65</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>80</v>
@@ -22265,10 +22280,10 @@
         <v>67</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>100</v>
@@ -22297,10 +22312,10 @@
         <v>68</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -22329,10 +22344,10 @@
         <v>69</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>140</v>
@@ -22361,10 +22376,10 @@
         <v>70</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>140</v>
@@ -22393,10 +22408,10 @@
         <v>71</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>80</v>
@@ -22425,10 +22440,10 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>80</v>
@@ -22457,10 +22472,10 @@
         <v>73</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>80</v>
@@ -22489,10 +22504,10 @@
         <v>74</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>200</v>
@@ -22521,10 +22536,10 @@
         <v>75</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>120</v>
@@ -22553,10 +22568,10 @@
         <v>76</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -22585,10 +22600,10 @@
         <v>77</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>160</v>
@@ -22617,10 +22632,10 @@
         <v>78</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>180</v>
@@ -22649,10 +22664,10 @@
         <v>79</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>220</v>
@@ -22713,10 +22728,10 @@
         <v>81</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>80</v>
@@ -22745,10 +22760,10 @@
         <v>82</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>80</v>
@@ -22777,10 +22792,10 @@
         <v>83</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>140</v>
